--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Edn1-Ednra.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Edn1-Ednra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.31922672583798</v>
+        <v>9.668177999999999</v>
       </c>
       <c r="H2">
-        <v>6.31922672583798</v>
+        <v>29.004534</v>
       </c>
       <c r="I2">
-        <v>0.7895724622735333</v>
+        <v>0.826615067350047</v>
       </c>
       <c r="J2">
-        <v>0.7895724622735333</v>
+        <v>0.8266150673500469</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.18453101094236</v>
+        <v>1.314108</v>
       </c>
       <c r="N2">
-        <v>1.18453101094236</v>
+        <v>3.942324</v>
       </c>
       <c r="O2">
-        <v>0.05304315600371069</v>
+        <v>0.05768654525237047</v>
       </c>
       <c r="P2">
-        <v>0.05304315600371069</v>
+        <v>0.05768654525237048</v>
       </c>
       <c r="Q2">
-        <v>7.485320021930842</v>
+        <v>12.705030055224</v>
       </c>
       <c r="R2">
-        <v>7.485320021930842</v>
+        <v>114.345270497016</v>
       </c>
       <c r="S2">
-        <v>0.041881415292609</v>
+        <v>0.04768456748897975</v>
       </c>
       <c r="T2">
-        <v>0.041881415292609</v>
+        <v>0.04768456748897975</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.31922672583798</v>
+        <v>9.668177999999999</v>
       </c>
       <c r="H3">
-        <v>6.31922672583798</v>
+        <v>29.004534</v>
       </c>
       <c r="I3">
-        <v>0.7895724622735333</v>
+        <v>0.826615067350047</v>
       </c>
       <c r="J3">
-        <v>0.7895724622735333</v>
+        <v>0.8266150673500469</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.90092014966637</v>
+        <v>4.912216333333333</v>
       </c>
       <c r="N3">
-        <v>4.90092014966637</v>
+        <v>14.736649</v>
       </c>
       <c r="O3">
-        <v>0.2194626140295556</v>
+        <v>0.2156358456095441</v>
       </c>
       <c r="P3">
-        <v>0.2194626140295556</v>
+        <v>0.2156358456095441</v>
       </c>
       <c r="Q3">
-        <v>30.9700255909696</v>
+        <v>47.492181885174</v>
       </c>
       <c r="R3">
-        <v>30.9700255909696</v>
+        <v>427.429636966566</v>
       </c>
       <c r="S3">
-        <v>0.1732816365363023</v>
+        <v>0.1782478390416176</v>
       </c>
       <c r="T3">
-        <v>0.1732816365363023</v>
+        <v>0.1782478390416176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.31922672583798</v>
+        <v>9.668177999999999</v>
       </c>
       <c r="H4">
-        <v>6.31922672583798</v>
+        <v>29.004534</v>
       </c>
       <c r="I4">
-        <v>0.7895724622735333</v>
+        <v>0.826615067350047</v>
       </c>
       <c r="J4">
-        <v>0.7895724622735333</v>
+        <v>0.8266150673500469</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.388096791303731</v>
+        <v>0.0405</v>
       </c>
       <c r="N4">
-        <v>0.388096791303731</v>
+        <v>0.1215</v>
       </c>
       <c r="O4">
-        <v>0.01737892757175361</v>
+        <v>0.001777863830614382</v>
       </c>
       <c r="P4">
-        <v>0.01737892757175361</v>
+        <v>0.001777863830614382</v>
       </c>
       <c r="Q4">
-        <v>2.452471615818502</v>
+        <v>0.391561209</v>
       </c>
       <c r="R4">
-        <v>2.452471615818502</v>
+        <v>3.524050881</v>
       </c>
       <c r="S4">
-        <v>0.01372192263450289</v>
+        <v>0.00146960903008252</v>
       </c>
       <c r="T4">
-        <v>0.01372192263450289</v>
+        <v>0.00146960903008252</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.31922672583798</v>
+        <v>9.668177999999999</v>
       </c>
       <c r="H5">
-        <v>6.31922672583798</v>
+        <v>29.004534</v>
       </c>
       <c r="I5">
-        <v>0.7895724622735333</v>
+        <v>0.826615067350047</v>
       </c>
       <c r="J5">
-        <v>0.7895724622735333</v>
+        <v>0.8266150673500469</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.8579100567229</v>
+        <v>0.4069286666666667</v>
       </c>
       <c r="N5">
-        <v>15.8579100567229</v>
+        <v>1.220786</v>
       </c>
       <c r="O5">
-        <v>0.7101153023949801</v>
+        <v>0.01786330266930378</v>
       </c>
       <c r="P5">
-        <v>0.7101153023949801</v>
+        <v>0.01786330266930378</v>
       </c>
       <c r="Q5">
-        <v>100.2097290463782</v>
+        <v>3.934258782636</v>
       </c>
       <c r="R5">
-        <v>100.2097290463782</v>
+        <v>35.408329043724</v>
       </c>
       <c r="S5">
-        <v>0.5606874878101191</v>
+        <v>0.01476607513908082</v>
       </c>
       <c r="T5">
-        <v>0.5606874878101191</v>
+        <v>0.01476607513908081</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.795300008041572</v>
+        <v>9.668177999999999</v>
       </c>
       <c r="H6">
-        <v>0.795300008041572</v>
+        <v>29.004534</v>
       </c>
       <c r="I6">
-        <v>0.09937085862547114</v>
+        <v>0.826615067350047</v>
       </c>
       <c r="J6">
-        <v>0.09937085862547114</v>
+        <v>0.8266150673500469</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.18453101094236</v>
+        <v>16.10639433333333</v>
       </c>
       <c r="N6">
-        <v>1.18453101094236</v>
+        <v>48.319183</v>
       </c>
       <c r="O6">
-        <v>0.05304315600371069</v>
+        <v>0.7070364426381672</v>
       </c>
       <c r="P6">
-        <v>0.05304315600371069</v>
+        <v>0.7070364426381672</v>
       </c>
       <c r="Q6">
-        <v>0.9420575225279502</v>
+        <v>155.719487352858</v>
       </c>
       <c r="R6">
-        <v>0.9420575225279502</v>
+        <v>1401.475386175722</v>
       </c>
       <c r="S6">
-        <v>0.005270943956293545</v>
+        <v>0.5844469766502862</v>
       </c>
       <c r="T6">
-        <v>0.005270943956293545</v>
+        <v>0.5844469766502861</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.795300008041572</v>
+        <v>0.803962</v>
       </c>
       <c r="H7">
-        <v>0.795300008041572</v>
+        <v>2.411886</v>
       </c>
       <c r="I7">
-        <v>0.09937085862547114</v>
+        <v>0.06873757421272948</v>
       </c>
       <c r="J7">
-        <v>0.09937085862547114</v>
+        <v>0.06873757421272947</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.90092014966637</v>
+        <v>1.314108</v>
       </c>
       <c r="N7">
-        <v>4.90092014966637</v>
+        <v>3.942324</v>
       </c>
       <c r="O7">
-        <v>0.2194626140295556</v>
+        <v>0.05768654525237047</v>
       </c>
       <c r="P7">
-        <v>0.2194626140295556</v>
+        <v>0.05768654525237048</v>
       </c>
       <c r="Q7">
-        <v>3.897701834440766</v>
+        <v>1.056492895896</v>
       </c>
       <c r="R7">
-        <v>3.897701834440766</v>
+        <v>9.508436063064</v>
       </c>
       <c r="S7">
-        <v>0.02180818839230731</v>
+        <v>0.003965233185360793</v>
       </c>
       <c r="T7">
-        <v>0.02180818839230731</v>
+        <v>0.003965233185360792</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.795300008041572</v>
+        <v>0.803962</v>
       </c>
       <c r="H8">
-        <v>0.795300008041572</v>
+        <v>2.411886</v>
       </c>
       <c r="I8">
-        <v>0.09937085862547114</v>
+        <v>0.06873757421272948</v>
       </c>
       <c r="J8">
-        <v>0.09937085862547114</v>
+        <v>0.06873757421272947</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.388096791303731</v>
+        <v>4.912216333333333</v>
       </c>
       <c r="N8">
-        <v>0.388096791303731</v>
+        <v>14.736649</v>
       </c>
       <c r="O8">
-        <v>0.01737892757175361</v>
+        <v>0.2156358456095441</v>
       </c>
       <c r="P8">
-        <v>0.01737892757175361</v>
+        <v>0.2156358456095441</v>
       </c>
       <c r="Q8">
-        <v>0.3086533812447655</v>
+        <v>3.949235267779333</v>
       </c>
       <c r="R8">
-        <v>0.3086533812447655</v>
+        <v>35.543117410014</v>
       </c>
       <c r="S8">
-        <v>0.00172695895479503</v>
+        <v>0.01482228494051071</v>
       </c>
       <c r="T8">
-        <v>0.00172695895479503</v>
+        <v>0.01482228494051071</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +962,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.795300008041572</v>
+        <v>0.803962</v>
       </c>
       <c r="H9">
-        <v>0.795300008041572</v>
+        <v>2.411886</v>
       </c>
       <c r="I9">
-        <v>0.09937085862547114</v>
+        <v>0.06873757421272948</v>
       </c>
       <c r="J9">
-        <v>0.09937085862547114</v>
+        <v>0.06873757421272947</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>15.8579100567229</v>
+        <v>0.0405</v>
       </c>
       <c r="N9">
-        <v>15.8579100567229</v>
+        <v>0.1215</v>
       </c>
       <c r="O9">
-        <v>0.7101153023949801</v>
+        <v>0.001777863830614382</v>
       </c>
       <c r="P9">
-        <v>0.7101153023949801</v>
+        <v>0.001777863830614382</v>
       </c>
       <c r="Q9">
-        <v>12.61179599563425</v>
+        <v>0.032560461</v>
       </c>
       <c r="R9">
-        <v>12.61179599563425</v>
+        <v>0.293044149</v>
       </c>
       <c r="S9">
-        <v>0.07056476732207526</v>
+        <v>0.0001222060469969836</v>
       </c>
       <c r="T9">
-        <v>0.07056476732207526</v>
+        <v>0.0001222060469969836</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6776845446576441</v>
+        <v>0.803962</v>
       </c>
       <c r="H10">
-        <v>0.6776845446576441</v>
+        <v>2.411886</v>
       </c>
       <c r="I10">
-        <v>0.08467508411784326</v>
+        <v>0.06873757421272948</v>
       </c>
       <c r="J10">
-        <v>0.08467508411784326</v>
+        <v>0.06873757421272947</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.18453101094236</v>
+        <v>0.4069286666666667</v>
       </c>
       <c r="N10">
-        <v>1.18453101094236</v>
+        <v>1.220786</v>
       </c>
       <c r="O10">
-        <v>0.05304315600371069</v>
+        <v>0.01786330266930378</v>
       </c>
       <c r="P10">
-        <v>0.05304315600371069</v>
+        <v>0.01786330266930378</v>
       </c>
       <c r="Q10">
-        <v>0.802738358783332</v>
+        <v>0.3271551847106666</v>
       </c>
       <c r="R10">
-        <v>0.802738358783332</v>
+        <v>2.944396662396</v>
       </c>
       <c r="S10">
-        <v>0.004491433696490085</v>
+        <v>0.001227880092915717</v>
       </c>
       <c r="T10">
-        <v>0.004491433696490085</v>
+        <v>0.001227880092915717</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6776845446576441</v>
+        <v>0.803962</v>
       </c>
       <c r="H11">
-        <v>0.6776845446576441</v>
+        <v>2.411886</v>
       </c>
       <c r="I11">
-        <v>0.08467508411784326</v>
+        <v>0.06873757421272948</v>
       </c>
       <c r="J11">
-        <v>0.08467508411784326</v>
+        <v>0.06873757421272947</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.90092014966637</v>
+        <v>16.10639433333333</v>
       </c>
       <c r="N11">
-        <v>4.90092014966637</v>
+        <v>48.319183</v>
       </c>
       <c r="O11">
-        <v>0.2194626140295556</v>
+        <v>0.7070364426381672</v>
       </c>
       <c r="P11">
-        <v>0.2194626140295556</v>
+        <v>0.7070364426381672</v>
       </c>
       <c r="Q11">
-        <v>3.321277840030127</v>
+        <v>12.94892900101533</v>
       </c>
       <c r="R11">
-        <v>3.321277840030127</v>
+        <v>116.540361009138</v>
       </c>
       <c r="S11">
-        <v>0.01858301530367439</v>
+        <v>0.04859996994694527</v>
       </c>
       <c r="T11">
-        <v>0.01858301530367439</v>
+        <v>0.04859996994694527</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.6776845446576441</v>
+        <v>0.2108686666666667</v>
       </c>
       <c r="H12">
-        <v>0.6776845446576441</v>
+        <v>0.632606</v>
       </c>
       <c r="I12">
-        <v>0.08467508411784326</v>
+        <v>0.01802896234416467</v>
       </c>
       <c r="J12">
-        <v>0.08467508411784326</v>
+        <v>0.01802896234416467</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.388096791303731</v>
+        <v>1.314108</v>
       </c>
       <c r="N12">
-        <v>0.388096791303731</v>
+        <v>3.942324</v>
       </c>
       <c r="O12">
-        <v>0.01737892757175361</v>
+        <v>0.05768654525237047</v>
       </c>
       <c r="P12">
-        <v>0.01737892757175361</v>
+        <v>0.05768654525237048</v>
       </c>
       <c r="Q12">
-        <v>0.2630071972977616</v>
+        <v>0.277104201816</v>
       </c>
       <c r="R12">
-        <v>0.2630071972977616</v>
+        <v>2.493937816344</v>
       </c>
       <c r="S12">
-        <v>0.001471562154016142</v>
+        <v>0.001040028552119938</v>
       </c>
       <c r="T12">
-        <v>0.001471562154016142</v>
+        <v>0.001040028552119938</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,247 +1210,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.6776845446576441</v>
+        <v>0.2108686666666667</v>
       </c>
       <c r="H13">
-        <v>0.6776845446576441</v>
+        <v>0.632606</v>
       </c>
       <c r="I13">
-        <v>0.08467508411784326</v>
+        <v>0.01802896234416467</v>
       </c>
       <c r="J13">
-        <v>0.08467508411784326</v>
+        <v>0.01802896234416467</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.8579100567229</v>
+        <v>4.912216333333333</v>
       </c>
       <c r="N13">
-        <v>15.8579100567229</v>
+        <v>14.736649</v>
       </c>
       <c r="O13">
-        <v>0.7101153023949801</v>
+        <v>0.2156358456095441</v>
       </c>
       <c r="P13">
-        <v>0.7101153023949801</v>
+        <v>0.2156358456095441</v>
       </c>
       <c r="Q13">
-        <v>10.74666055601213</v>
+        <v>1.035832508588222</v>
       </c>
       <c r="R13">
-        <v>10.74666055601213</v>
+        <v>9.322492577294</v>
       </c>
       <c r="S13">
-        <v>0.06012907296366264</v>
+        <v>0.003887690540546577</v>
       </c>
       <c r="T13">
-        <v>0.06012907296366264</v>
+        <v>0.003887690540546576</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.211141203693619</v>
+        <v>0.2108686666666667</v>
       </c>
       <c r="H14">
-        <v>0.211141203693619</v>
+        <v>0.632606</v>
       </c>
       <c r="I14">
-        <v>0.02638159498315217</v>
+        <v>0.01802896234416467</v>
       </c>
       <c r="J14">
-        <v>0.02638159498315217</v>
+        <v>0.01802896234416467</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>1.18453101094236</v>
+        <v>0.0405</v>
       </c>
       <c r="N14">
-        <v>1.18453101094236</v>
+        <v>0.1215</v>
       </c>
       <c r="O14">
-        <v>0.05304315600371069</v>
+        <v>0.001777863830614382</v>
       </c>
       <c r="P14">
-        <v>0.05304315600371069</v>
+        <v>0.001777863830614382</v>
       </c>
       <c r="Q14">
-        <v>0.2501033034627893</v>
+        <v>0.008540181000000001</v>
       </c>
       <c r="R14">
-        <v>0.2501033034627893</v>
+        <v>0.076861629</v>
       </c>
       <c r="S14">
-        <v>0.001399363058318052</v>
+        <v>3.205304005519905E-05</v>
       </c>
       <c r="T14">
-        <v>0.001399363058318052</v>
+        <v>3.205304005519905E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.211141203693619</v>
+        <v>0.2108686666666667</v>
       </c>
       <c r="H15">
-        <v>0.211141203693619</v>
+        <v>0.632606</v>
       </c>
       <c r="I15">
-        <v>0.02638159498315217</v>
+        <v>0.01802896234416467</v>
       </c>
       <c r="J15">
-        <v>0.02638159498315217</v>
+        <v>0.01802896234416467</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.90092014966637</v>
+        <v>0.4069286666666667</v>
       </c>
       <c r="N15">
-        <v>4.90092014966637</v>
+        <v>1.220786</v>
       </c>
       <c r="O15">
-        <v>0.2194626140295556</v>
+        <v>0.01786330266930378</v>
       </c>
       <c r="P15">
-        <v>0.2194626140295556</v>
+        <v>0.01786330266930378</v>
       </c>
       <c r="Q15">
-        <v>1.034786179606869</v>
+        <v>0.08580850536844445</v>
       </c>
       <c r="R15">
-        <v>1.034786179606869</v>
+        <v>0.772276548316</v>
       </c>
       <c r="S15">
-        <v>0.005789773797271585</v>
+        <v>0.0003220568111672941</v>
       </c>
       <c r="T15">
-        <v>0.005789773797271585</v>
+        <v>0.000322056811167294</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.211141203693619</v>
+        <v>0.2108686666666667</v>
       </c>
       <c r="H16">
-        <v>0.211141203693619</v>
+        <v>0.632606</v>
       </c>
       <c r="I16">
-        <v>0.02638159498315217</v>
+        <v>0.01802896234416467</v>
       </c>
       <c r="J16">
-        <v>0.02638159498315217</v>
+        <v>0.01802896234416467</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.388096791303731</v>
+        <v>16.10639433333333</v>
       </c>
       <c r="N16">
-        <v>0.388096791303731</v>
+        <v>48.319183</v>
       </c>
       <c r="O16">
-        <v>0.01737892757175361</v>
+        <v>0.7070364426381672</v>
       </c>
       <c r="P16">
-        <v>0.01737892757175361</v>
+        <v>0.7070364426381672</v>
       </c>
       <c r="Q16">
-        <v>0.08194322366550101</v>
+        <v>3.396333897877555</v>
       </c>
       <c r="R16">
-        <v>0.08194322366550101</v>
+        <v>30.567005080898</v>
       </c>
       <c r="S16">
-        <v>0.0004584838284395399</v>
+        <v>0.01274713340027566</v>
       </c>
       <c r="T16">
-        <v>0.0004584838284395399</v>
+        <v>0.01274713340027566</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1452,61 +1458,929 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05767233333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.173017</v>
+      </c>
+      <c r="I17">
+        <v>0.00493090008299058</v>
+      </c>
+      <c r="J17">
+        <v>0.004930900082990579</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.314108</v>
+      </c>
+      <c r="N17">
+        <v>3.942324</v>
+      </c>
+      <c r="O17">
+        <v>0.05768654525237047</v>
+      </c>
+      <c r="P17">
+        <v>0.05768654525237048</v>
+      </c>
+      <c r="Q17">
+        <v>0.07578767461199999</v>
+      </c>
+      <c r="R17">
+        <v>0.682089071508</v>
+      </c>
+      <c r="S17">
+        <v>0.0002844465907723534</v>
+      </c>
+      <c r="T17">
+        <v>0.0002844465907723534</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05767233333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.173017</v>
+      </c>
+      <c r="I18">
+        <v>0.00493090008299058</v>
+      </c>
+      <c r="J18">
+        <v>0.004930900082990579</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.912216333333333</v>
+      </c>
+      <c r="N18">
+        <v>14.736649</v>
+      </c>
+      <c r="O18">
+        <v>0.2156358456095441</v>
+      </c>
+      <c r="P18">
+        <v>0.2156358456095441</v>
+      </c>
+      <c r="Q18">
+        <v>0.2832989777814444</v>
+      </c>
+      <c r="R18">
+        <v>2.549690800033</v>
+      </c>
+      <c r="S18">
+        <v>0.001063278809011845</v>
+      </c>
+      <c r="T18">
+        <v>0.001063278809011844</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05767233333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.173017</v>
+      </c>
+      <c r="I19">
+        <v>0.00493090008299058</v>
+      </c>
+      <c r="J19">
+        <v>0.004930900082990579</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.0405</v>
+      </c>
+      <c r="N19">
+        <v>0.1215</v>
+      </c>
+      <c r="O19">
+        <v>0.001777863830614382</v>
+      </c>
+      <c r="P19">
+        <v>0.001777863830614382</v>
+      </c>
+      <c r="Q19">
+        <v>0.0023357295</v>
+      </c>
+      <c r="R19">
+        <v>0.0210215655</v>
+      </c>
+      <c r="S19">
+        <v>8.766468909922407E-06</v>
+      </c>
+      <c r="T19">
+        <v>8.766468909922405E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.05767233333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.173017</v>
+      </c>
+      <c r="I20">
+        <v>0.00493090008299058</v>
+      </c>
+      <c r="J20">
+        <v>0.004930900082990579</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.4069286666666667</v>
+      </c>
+      <c r="N20">
+        <v>1.220786</v>
+      </c>
+      <c r="O20">
+        <v>0.01786330266930378</v>
+      </c>
+      <c r="P20">
+        <v>0.01786330266930378</v>
+      </c>
+      <c r="Q20">
+        <v>0.02346852570688889</v>
+      </c>
+      <c r="R20">
+        <v>0.211216731362</v>
+      </c>
+      <c r="S20">
+        <v>8.808216061455586E-05</v>
+      </c>
+      <c r="T20">
+        <v>8.808216061455582E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.211141203693619</v>
-      </c>
-      <c r="H17">
-        <v>0.211141203693619</v>
-      </c>
-      <c r="I17">
-        <v>0.02638159498315217</v>
-      </c>
-      <c r="J17">
-        <v>0.02638159498315217</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>15.8579100567229</v>
-      </c>
-      <c r="N17">
-        <v>15.8579100567229</v>
-      </c>
-      <c r="O17">
-        <v>0.7101153023949801</v>
-      </c>
-      <c r="P17">
-        <v>0.7101153023949801</v>
-      </c>
-      <c r="Q17">
-        <v>3.348258217441619</v>
-      </c>
-      <c r="R17">
-        <v>3.348258217441619</v>
-      </c>
-      <c r="S17">
-        <v>0.01873397429912299</v>
-      </c>
-      <c r="T17">
-        <v>0.01873397429912299</v>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.05767233333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.173017</v>
+      </c>
+      <c r="I21">
+        <v>0.00493090008299058</v>
+      </c>
+      <c r="J21">
+        <v>0.004930900082990579</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>16.10639433333333</v>
+      </c>
+      <c r="N21">
+        <v>48.319183</v>
+      </c>
+      <c r="O21">
+        <v>0.7070364426381672</v>
+      </c>
+      <c r="P21">
+        <v>0.7070364426381672</v>
+      </c>
+      <c r="Q21">
+        <v>0.9288933427901109</v>
+      </c>
+      <c r="R21">
+        <v>8.360040085110999</v>
+      </c>
+      <c r="S21">
+        <v>0.003486326053681903</v>
+      </c>
+      <c r="T21">
+        <v>0.003486326053681903</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7237056666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.171117</v>
+      </c>
+      <c r="I22">
+        <v>0.06187577518672881</v>
+      </c>
+      <c r="J22">
+        <v>0.0618757751867288</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.314108</v>
+      </c>
+      <c r="N22">
+        <v>3.942324</v>
+      </c>
+      <c r="O22">
+        <v>0.05768654525237047</v>
+      </c>
+      <c r="P22">
+        <v>0.05768654525237048</v>
+      </c>
+      <c r="Q22">
+        <v>0.9510274062119999</v>
+      </c>
+      <c r="R22">
+        <v>8.559246655908</v>
+      </c>
+      <c r="S22">
+        <v>0.003569399705334734</v>
+      </c>
+      <c r="T22">
+        <v>0.003569399705334733</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.7237056666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.171117</v>
+      </c>
+      <c r="I23">
+        <v>0.06187577518672881</v>
+      </c>
+      <c r="J23">
+        <v>0.0618757751867288</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.912216333333333</v>
+      </c>
+      <c r="N23">
+        <v>14.736649</v>
+      </c>
+      <c r="O23">
+        <v>0.2156358456095441</v>
+      </c>
+      <c r="P23">
+        <v>0.2156358456095441</v>
+      </c>
+      <c r="Q23">
+        <v>3.554998796325889</v>
+      </c>
+      <c r="R23">
+        <v>31.994989166933</v>
+      </c>
+      <c r="S23">
+        <v>0.01334263510513631</v>
+      </c>
+      <c r="T23">
+        <v>0.01334263510513631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7237056666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.171117</v>
+      </c>
+      <c r="I24">
+        <v>0.06187577518672881</v>
+      </c>
+      <c r="J24">
+        <v>0.0618757751867288</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.0405</v>
+      </c>
+      <c r="N24">
+        <v>0.1215</v>
+      </c>
+      <c r="O24">
+        <v>0.001777863830614382</v>
+      </c>
+      <c r="P24">
+        <v>0.001777863830614382</v>
+      </c>
+      <c r="Q24">
+        <v>0.0293100795</v>
+      </c>
+      <c r="R24">
+        <v>0.2637907155</v>
+      </c>
+      <c r="S24">
+        <v>0.000110006702695712</v>
+      </c>
+      <c r="T24">
+        <v>0.000110006702695712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7237056666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.171117</v>
+      </c>
+      <c r="I25">
+        <v>0.06187577518672881</v>
+      </c>
+      <c r="J25">
+        <v>0.0618757751867288</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4069286666666667</v>
+      </c>
+      <c r="N25">
+        <v>1.220786</v>
+      </c>
+      <c r="O25">
+        <v>0.01786330266930378</v>
+      </c>
+      <c r="P25">
+        <v>0.01786330266930378</v>
+      </c>
+      <c r="Q25">
+        <v>0.2944965819957778</v>
+      </c>
+      <c r="R25">
+        <v>2.650469237962</v>
+      </c>
+      <c r="S25">
+        <v>0.001105305700058333</v>
+      </c>
+      <c r="T25">
+        <v>0.001105305700058333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7237056666666667</v>
+      </c>
+      <c r="H26">
+        <v>2.171117</v>
+      </c>
+      <c r="I26">
+        <v>0.06187577518672881</v>
+      </c>
+      <c r="J26">
+        <v>0.0618757751867288</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>16.10639433333333</v>
+      </c>
+      <c r="N26">
+        <v>48.319183</v>
+      </c>
+      <c r="O26">
+        <v>0.7070364426381672</v>
+      </c>
+      <c r="P26">
+        <v>0.7070364426381672</v>
+      </c>
+      <c r="Q26">
+        <v>11.65628884860122</v>
+      </c>
+      <c r="R26">
+        <v>104.906599637411</v>
+      </c>
+      <c r="S26">
+        <v>0.04374842797350372</v>
+      </c>
+      <c r="T26">
+        <v>0.04374842797350371</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.23172</v>
+      </c>
+      <c r="H27">
+        <v>0.69516</v>
+      </c>
+      <c r="I27">
+        <v>0.01981172082333951</v>
+      </c>
+      <c r="J27">
+        <v>0.0198117208233395</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.314108</v>
+      </c>
+      <c r="N27">
+        <v>3.942324</v>
+      </c>
+      <c r="O27">
+        <v>0.05768654525237047</v>
+      </c>
+      <c r="P27">
+        <v>0.05768654525237048</v>
+      </c>
+      <c r="Q27">
+        <v>0.3045051057599999</v>
+      </c>
+      <c r="R27">
+        <v>2.74054595184</v>
+      </c>
+      <c r="S27">
+        <v>0.001142869729802905</v>
+      </c>
+      <c r="T27">
+        <v>0.001142869729802905</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.23172</v>
+      </c>
+      <c r="H28">
+        <v>0.69516</v>
+      </c>
+      <c r="I28">
+        <v>0.01981172082333951</v>
+      </c>
+      <c r="J28">
+        <v>0.0198117208233395</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>4.912216333333333</v>
+      </c>
+      <c r="N28">
+        <v>14.736649</v>
+      </c>
+      <c r="O28">
+        <v>0.2156358456095441</v>
+      </c>
+      <c r="P28">
+        <v>0.2156358456095441</v>
+      </c>
+      <c r="Q28">
+        <v>1.13825876876</v>
+      </c>
+      <c r="R28">
+        <v>10.24432891884</v>
+      </c>
+      <c r="S28">
+        <v>0.004272117172721028</v>
+      </c>
+      <c r="T28">
+        <v>0.004272117172721026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.23172</v>
+      </c>
+      <c r="H29">
+        <v>0.69516</v>
+      </c>
+      <c r="I29">
+        <v>0.01981172082333951</v>
+      </c>
+      <c r="J29">
+        <v>0.0198117208233395</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.0405</v>
+      </c>
+      <c r="N29">
+        <v>0.1215</v>
+      </c>
+      <c r="O29">
+        <v>0.001777863830614382</v>
+      </c>
+      <c r="P29">
+        <v>0.001777863830614382</v>
+      </c>
+      <c r="Q29">
+        <v>0.009384660000000001</v>
+      </c>
+      <c r="R29">
+        <v>0.08446194</v>
+      </c>
+      <c r="S29">
+        <v>3.52225418740451E-05</v>
+      </c>
+      <c r="T29">
+        <v>3.522254187404509E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.23172</v>
+      </c>
+      <c r="H30">
+        <v>0.69516</v>
+      </c>
+      <c r="I30">
+        <v>0.01981172082333951</v>
+      </c>
+      <c r="J30">
+        <v>0.0198117208233395</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.4069286666666667</v>
+      </c>
+      <c r="N30">
+        <v>1.220786</v>
+      </c>
+      <c r="O30">
+        <v>0.01786330266930378</v>
+      </c>
+      <c r="P30">
+        <v>0.01786330266930378</v>
+      </c>
+      <c r="Q30">
+        <v>0.09429351064000001</v>
+      </c>
+      <c r="R30">
+        <v>0.84864159576</v>
+      </c>
+      <c r="S30">
+        <v>0.0003539027654670619</v>
+      </c>
+      <c r="T30">
+        <v>0.0003539027654670618</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.23172</v>
+      </c>
+      <c r="H31">
+        <v>0.69516</v>
+      </c>
+      <c r="I31">
+        <v>0.01981172082333951</v>
+      </c>
+      <c r="J31">
+        <v>0.0198117208233395</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>16.10639433333333</v>
+      </c>
+      <c r="N31">
+        <v>48.319183</v>
+      </c>
+      <c r="O31">
+        <v>0.7070364426381672</v>
+      </c>
+      <c r="P31">
+        <v>0.7070364426381672</v>
+      </c>
+      <c r="Q31">
+        <v>3.73217369492</v>
+      </c>
+      <c r="R31">
+        <v>33.58956325427999</v>
+      </c>
+      <c r="S31">
+        <v>0.01400760861347447</v>
+      </c>
+      <c r="T31">
+        <v>0.01400760861347446</v>
       </c>
     </row>
   </sheetData>
